--- a/Excel Files/PQ Challenges/PQ Challenge 20 Problem.xlsx
+++ b/Excel Files/PQ Challenges/PQ Challenge 20 Problem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PQ Challenges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Excel-BI-Python\Excel Files\PQ Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77A3636-3FA0-4B0D-9794-7E52841CCD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D869FED-DE37-4BE7-83E4-34700E92D1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{21D00A5B-1F26-4267-BA1E-C94F2F22E1D6}"/>
   </bookViews>
@@ -38,15 +38,34 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>Emp ID</t>
   </si>
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -237,6 +256,9 @@
   </si>
   <si>
     <t>2016-07-27</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -295,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -305,6 +327,7 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,15 +482,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>339744</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104794</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -495,7 +518,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914400" y="209550"/>
+          <a:off x="1066800" y="120650"/>
           <a:ext cx="3927494" cy="3892550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -507,16 +530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1282700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -531,7 +554,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505200" y="1689100"/>
+          <a:off x="2400300" y="4159250"/>
           <a:ext cx="3632200" cy="1435100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -595,15 +618,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -633,7 +656,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6070600" y="3352800"/>
+          <a:off x="6318250" y="4356100"/>
           <a:ext cx="1136650" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -951,13 +974,45 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="1736" row="10">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{5F7A125B-EF7E-4AC6-93A6-E2DC709E91BE}">
+  <we:reference id="wa200003696" version="1.2.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.2.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{3722A912-139B-48C3-8C45-4B97AC241EF9}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE71941-DF29-4671-87E4-30F58B299911}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,600 +1027,723 @@
     <col min="8" max="8" width="5.54296875" customWidth="1"/>
     <col min="9" max="9" width="5.08984375" customWidth="1"/>
     <col min="11" max="11" width="19.81640625" customWidth="1"/>
+    <col min="13" max="13" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>167210</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>49</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2">
         <v>167210</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M2" s="9" cm="1">
+        <f t="array" ref="M2:N19">_xlfn.LET(_xlpm.Data, A1:H19, _xlpm.RemoveSource, _xlfn.DROP(_xlpm.Data, , 1), _xlpm.DataWithoutHeader, _xlfn.DROP(_xlpm.RemoveSource, 1), _xlpm.OtherColsName, _xlfn.DROP(_xlfn.TAKE(_xlpm.RemoveSource, 1), , 1), _xlpm.IdColData, _xlfn.CHOOSECOLS(_xlpm.DataWithoutHeader, 1), _xlpm.EmpIds, _xlfn.UNIQUE(_xlpm.IdColData), _xlpm.fx_ForOne, _xlfn.LAMBDA(_xlpm.ForId, _xlfn.LET(_xlpm.FilteredData, _xlfn.DROP(_xlfn._xlws.FILTER(_xlpm.DataWithoutHeader, _xlpm.IdColData = _xlpm.ForId), , 1), _xlpm.CheckColData, _xlfn.CHOOSEROWS(_xlpm.FilteredData, 1) &lt;&gt; _xlfn.CHOOSEROWS(_xlpm.FilteredData, 2), _xlpm.Result, IFERROR(_xlfn.TEXTJOIN(", ", TRUE, _xlfn._xlws.FILTER(_xlpm.OtherColsName, _xlpm.CheckColData)), ""), _xlpm.Result)), _xlpm.Result, _xlfn.HSTACK(_xlpm.IdColData, _xlfn.BYROW(_xlpm.IdColData, _xlpm.fx_ForOne)), _xlpm.Result)</f>
+        <v>167210</v>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>167210</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>49</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>167210</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <v>167210</v>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>252591</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>70</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
       </c>
       <c r="J4">
         <v>252591</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>252591</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Weight, City</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>252591</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>71</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
       </c>
       <c r="J5">
         <v>252591</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>252591</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Weight, City</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>435759</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>60</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
       </c>
       <c r="J6">
         <v>435759</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <v>435759</v>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>435759</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>60</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
       <c r="J7">
         <v>435759</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M7">
+        <v>435759</v>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>556961</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>556961</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="M8">
+        <v>556961</v>
+      </c>
+      <c r="N8" t="str">
+        <v>Name, Weight, State</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>556961</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>556961</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="M9">
+        <v>556961</v>
+      </c>
+      <c r="N9" t="str">
+        <v>Name, Weight, State</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>598718</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>65</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>598718</v>
       </c>
       <c r="K10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>598718</v>
+      </c>
+      <c r="N10" t="str">
+        <v>City</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>598718</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>65</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>598718</v>
       </c>
       <c r="K11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>598718</v>
+      </c>
+      <c r="N11" t="str">
+        <v>City</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>657925</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
       </c>
       <c r="J12">
         <v>657925</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>657925</v>
+      </c>
+      <c r="N12" t="str">
+        <v>Weight, Date, Country</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>657925</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>69</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13">
         <v>657925</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>657925</v>
+      </c>
+      <c r="N13" t="str">
+        <v>Weight, Date, Country</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>781324</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
         <v>44</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>14</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
       </c>
       <c r="J14">
         <v>781324</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M14">
+        <v>781324</v>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>781324</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>44</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
         <v>14</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
       </c>
       <c r="J15">
         <v>781324</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M15">
+        <v>781324</v>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>796383</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2">
         <v>47</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
         <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
       </c>
       <c r="J16">
         <v>796383</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="M16">
+        <v>796383</v>
+      </c>
+      <c r="N16" t="str">
+        <v>Name, Date</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>796383</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2">
         <v>47</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
         <v>28</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
       </c>
       <c r="J17">
         <v>796383</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="M17">
+        <v>796383</v>
+      </c>
+      <c r="N17" t="str">
+        <v>Name, Date</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>813185</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
         <v>50</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>813185</v>
       </c>
       <c r="K18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>813185</v>
+      </c>
+      <c r="N18" t="str">
+        <v>State</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>813185</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
         <v>50</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
         <v>6</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>7</v>
       </c>
       <c r="J19">
         <v>813185</v>
       </c>
       <c r="K19" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>813185</v>
+      </c>
+      <c r="N19" t="str">
+        <v>State</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3722A912-139B-48C3-8C45-4B97AC241EF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>